--- a/xls/monsterConfig.xlsx
+++ b/xls/monsterConfig.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@配置表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -45,9 +40,6 @@
     <t>steal[.][funcInt]</t>
   </si>
   <si>
-    <t>keep[.][funcInt]</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -88,19 +80,90 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C罗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅西</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>controll[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>配置表:MonsterConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ech</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[.][funcInt]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小混混3</t>
+  </si>
+  <si>
+    <t>小混混4</t>
+  </si>
+  <si>
+    <t>小混混5</t>
+  </si>
+  <si>
+    <t>小混混6</t>
+  </si>
+  <si>
+    <t>小混混7</t>
+  </si>
+  <si>
+    <t>小混混8</t>
+  </si>
+  <si>
+    <t>小混混9</t>
+  </si>
+  <si>
+    <t>小混混10</t>
+  </si>
+  <si>
+    <t>小混混11</t>
+  </si>
+  <si>
+    <t>身体</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -184,74 +247,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -264,14 +259,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -306,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,9 +562,10 @@
     <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,50 +588,62 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>10001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>200</v>
@@ -661,13 +669,19 @@
       <c r="J3" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>10002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
@@ -693,18 +707,354 @@
       <c r="J4" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
+        <v>150</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>150</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>150</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2">
+        <v>150</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>150</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
+        <v>150</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>200</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2">
+        <v>150</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>200</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2">
+        <v>150</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -717,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -731,7 +1081,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>

--- a/xls/monsterConfig.xlsx
+++ b/xls/monsterConfig.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="12090" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@配置表" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -164,6 +169,22 @@
   </si>
   <si>
     <t>身体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelStealRatio[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelPassRatio[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级抢断系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级传球系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -247,6 +268,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,14 +348,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -301,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,10 +651,13 @@
     <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="22.875" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="14" max="14" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +691,14 @@
       <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -637,8 +735,14 @@
       <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10001</v>
       </c>
@@ -675,8 +779,14 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
@@ -713,8 +823,14 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <v>100</v>
+      </c>
+      <c r="N4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10003</v>
       </c>
@@ -751,8 +867,14 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10004</v>
       </c>
@@ -789,8 +911,14 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10005</v>
       </c>
@@ -827,8 +955,14 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10006</v>
       </c>
@@ -865,8 +999,14 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M8" s="1">
+        <v>100</v>
+      </c>
+      <c r="N8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10007</v>
       </c>
@@ -903,8 +1043,14 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10008</v>
       </c>
@@ -941,8 +1087,14 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10009</v>
       </c>
@@ -979,8 +1131,14 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10010</v>
       </c>
@@ -1017,8 +1175,14 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10011</v>
       </c>
@@ -1054,6 +1218,12 @@
       </c>
       <c r="L13" s="1">
         <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/xls/monsterConfig.xlsx
+++ b/xls/monsterConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@配置表" sheetId="1" r:id="rId1"/>
@@ -97,38 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ech</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[.][funcInt]</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>health[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>技术</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -185,6 +153,14 @@
   </si>
   <si>
     <t>等级传球系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health[.][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech[.][funcFloat]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +613,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -686,16 +662,16 @@
         <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -730,16 +706,16 @@
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -747,7 +723,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>200</v>
@@ -791,7 +767,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
@@ -835,7 +811,7 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>200</v>
@@ -879,7 +855,7 @@
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
@@ -923,7 +899,7 @@
         <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>200</v>
@@ -967,7 +943,7 @@
         <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
@@ -1011,7 +987,7 @@
         <v>10007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>200</v>
@@ -1055,7 +1031,7 @@
         <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>200</v>
@@ -1099,7 +1075,7 @@
         <v>10009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>200</v>
@@ -1143,7 +1119,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>200</v>
@@ -1187,7 +1163,7 @@
         <v>10011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>200</v>

--- a/xls/monsterConfig.xlsx
+++ b/xls/monsterConfig.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@配置表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>tech[.][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1ID[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2ID[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,10 +642,11 @@
     <col min="11" max="11" width="19.5" customWidth="1"/>
     <col min="12" max="12" width="22.875" customWidth="1"/>
     <col min="13" max="13" width="30" customWidth="1"/>
-    <col min="14" max="14" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,8 +686,14 @@
       <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -717,8 +736,14 @@
       <c r="N2" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10001</v>
       </c>
@@ -761,8 +786,14 @@
       <c r="N3" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
@@ -805,8 +836,14 @@
       <c r="N4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10003</v>
       </c>
@@ -849,8 +886,14 @@
       <c r="N5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10004</v>
       </c>
@@ -893,8 +936,14 @@
       <c r="N6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10005</v>
       </c>
@@ -937,8 +986,14 @@
       <c r="N7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10006</v>
       </c>
@@ -981,8 +1036,14 @@
       <c r="N8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10007</v>
       </c>
@@ -1025,8 +1086,14 @@
       <c r="N9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10008</v>
       </c>
@@ -1069,8 +1136,14 @@
       <c r="N10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10009</v>
       </c>
@@ -1113,8 +1186,14 @@
       <c r="N11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10010</v>
       </c>
@@ -1157,8 +1236,14 @@
       <c r="N12" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O12" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10011</v>
       </c>
@@ -1200,6 +1285,12 @@
       </c>
       <c r="N13" s="1">
         <v>100</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
